--- a/resources/data-imports/Monsters/special-locations-monsters.xlsx
+++ b/resources/data-imports/Monsters/special-locations-monsters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -198,6 +198,30 @@
   </si>
   <si>
     <t>Krogs Journal</t>
+  </si>
+  <si>
+    <t>Duke of Suicide</t>
+  </si>
+  <si>
+    <t>Lumbering Lord of Nightmares</t>
+  </si>
+  <si>
+    <t>Shadow Lord of Children's Tears</t>
+  </si>
+  <si>
+    <t>Princess of Dead Cats Wishes</t>
+  </si>
+  <si>
+    <t>Time Jester of Satan</t>
+  </si>
+  <si>
+    <t>Satan</t>
+  </si>
+  <si>
+    <t>Corrupted Satan of The Deep</t>
+  </si>
+  <si>
+    <t>Broken Blessed Sword of Pags</t>
   </si>
 </sst>
 </file>
@@ -537,7 +561,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AX8"/>
+  <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +570,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4.57" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="37.705" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.282" bestFit="true" customWidth="true" style="0"/>
@@ -583,7 +607,7 @@
     <col min="36" max="36" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="34.135" bestFit="true" customWidth="true" style="0"/>
     <col min="40" max="40" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="41" max="41" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="42" max="42" width="17.567" bestFit="true" customWidth="true" style="0"/>
@@ -1688,6 +1712,947 @@
       </c>
       <c r="AX8">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50">
+      <c r="A9">
+        <v>532</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>100000000000</v>
+      </c>
+      <c r="D9">
+        <v>100000000000</v>
+      </c>
+      <c r="E9">
+        <v>100000000000</v>
+      </c>
+      <c r="F9">
+        <v>100000000000</v>
+      </c>
+      <c r="G9">
+        <v>100000000000</v>
+      </c>
+      <c r="H9">
+        <v>100000000000</v>
+      </c>
+      <c r="I9">
+        <v>100000000000</v>
+      </c>
+      <c r="J9">
+        <v>50000000000</v>
+      </c>
+      <c r="K9">
+        <v>1.1</v>
+      </c>
+      <c r="L9">
+        <v>1.1</v>
+      </c>
+      <c r="M9">
+        <v>1.1</v>
+      </c>
+      <c r="N9">
+        <v>1.1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>999</v>
+      </c>
+      <c r="T9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>200000</v>
+      </c>
+      <c r="V9">
+        <v>0.1</v>
+      </c>
+      <c r="W9">
+        <v>2000000000000</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9">
+        <v>25000000000</v>
+      </c>
+      <c r="AB9">
+        <v>10000000000</v>
+      </c>
+      <c r="AC9">
+        <v>1.5</v>
+      </c>
+      <c r="AD9">
+        <v>1.25</v>
+      </c>
+      <c r="AE9">
+        <v>1.25</v>
+      </c>
+      <c r="AF9">
+        <v>1.25</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1.05</v>
+      </c>
+      <c r="AJ9">
+        <v>1.05</v>
+      </c>
+      <c r="AK9">
+        <v>1.05</v>
+      </c>
+      <c r="AL9">
+        <v>1.05</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ9">
+        <v>0.7</v>
+      </c>
+      <c r="AR9">
+        <v>0.45</v>
+      </c>
+      <c r="AS9">
+        <v>0.35</v>
+      </c>
+      <c r="AW9">
+        <v>0.15</v>
+      </c>
+      <c r="AX9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="A10">
+        <v>533</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>100000000000</v>
+      </c>
+      <c r="D10">
+        <v>100000000000</v>
+      </c>
+      <c r="E10">
+        <v>100000000000</v>
+      </c>
+      <c r="F10">
+        <v>100000000000</v>
+      </c>
+      <c r="G10">
+        <v>100000000000</v>
+      </c>
+      <c r="H10">
+        <v>100000000000</v>
+      </c>
+      <c r="I10">
+        <v>100000000000</v>
+      </c>
+      <c r="J10">
+        <v>50000000000</v>
+      </c>
+      <c r="K10">
+        <v>1.1</v>
+      </c>
+      <c r="L10">
+        <v>1.1</v>
+      </c>
+      <c r="M10">
+        <v>1.1</v>
+      </c>
+      <c r="N10">
+        <v>1.1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>999</v>
+      </c>
+      <c r="T10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>200000</v>
+      </c>
+      <c r="V10">
+        <v>0.1</v>
+      </c>
+      <c r="W10">
+        <v>2000000000000</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10">
+        <v>25000000000</v>
+      </c>
+      <c r="AB10">
+        <v>10000000000</v>
+      </c>
+      <c r="AC10">
+        <v>1.5</v>
+      </c>
+      <c r="AD10">
+        <v>1.25</v>
+      </c>
+      <c r="AE10">
+        <v>1.25</v>
+      </c>
+      <c r="AF10">
+        <v>1.25</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1.05</v>
+      </c>
+      <c r="AJ10">
+        <v>1.05</v>
+      </c>
+      <c r="AK10">
+        <v>1.05</v>
+      </c>
+      <c r="AL10">
+        <v>1.05</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ10">
+        <v>0.7</v>
+      </c>
+      <c r="AR10">
+        <v>0.45</v>
+      </c>
+      <c r="AS10">
+        <v>0.35</v>
+      </c>
+      <c r="AW10">
+        <v>0.15</v>
+      </c>
+      <c r="AX10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11">
+        <v>534</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>100000000000</v>
+      </c>
+      <c r="D11">
+        <v>100000000000</v>
+      </c>
+      <c r="E11">
+        <v>100000000000</v>
+      </c>
+      <c r="F11">
+        <v>100000000000</v>
+      </c>
+      <c r="G11">
+        <v>100000000000</v>
+      </c>
+      <c r="H11">
+        <v>100000000000</v>
+      </c>
+      <c r="I11">
+        <v>100000000000</v>
+      </c>
+      <c r="J11">
+        <v>50000000000</v>
+      </c>
+      <c r="K11">
+        <v>1.1</v>
+      </c>
+      <c r="L11">
+        <v>1.1</v>
+      </c>
+      <c r="M11">
+        <v>1.1</v>
+      </c>
+      <c r="N11">
+        <v>1.1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>999</v>
+      </c>
+      <c r="T11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>200000</v>
+      </c>
+      <c r="V11">
+        <v>0.1</v>
+      </c>
+      <c r="W11">
+        <v>2000000000000</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11">
+        <v>25000000000</v>
+      </c>
+      <c r="AB11">
+        <v>10000000000</v>
+      </c>
+      <c r="AC11">
+        <v>1.5</v>
+      </c>
+      <c r="AD11">
+        <v>1.25</v>
+      </c>
+      <c r="AE11">
+        <v>1.25</v>
+      </c>
+      <c r="AF11">
+        <v>1.25</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1.05</v>
+      </c>
+      <c r="AJ11">
+        <v>1.05</v>
+      </c>
+      <c r="AK11">
+        <v>1.05</v>
+      </c>
+      <c r="AL11">
+        <v>1.05</v>
+      </c>
+      <c r="AN11">
+        <v>0.15</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ11">
+        <v>0.7</v>
+      </c>
+      <c r="AR11">
+        <v>0.45</v>
+      </c>
+      <c r="AS11">
+        <v>0.35</v>
+      </c>
+      <c r="AW11">
+        <v>0.15</v>
+      </c>
+      <c r="AX11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="A12">
+        <v>535</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>100000000000</v>
+      </c>
+      <c r="D12">
+        <v>100000000000</v>
+      </c>
+      <c r="E12">
+        <v>100000000000</v>
+      </c>
+      <c r="F12">
+        <v>100000000000</v>
+      </c>
+      <c r="G12">
+        <v>100000000000</v>
+      </c>
+      <c r="H12">
+        <v>100000000000</v>
+      </c>
+      <c r="I12">
+        <v>100000000000</v>
+      </c>
+      <c r="J12">
+        <v>50000000000</v>
+      </c>
+      <c r="K12">
+        <v>1.1</v>
+      </c>
+      <c r="L12">
+        <v>1.1</v>
+      </c>
+      <c r="M12">
+        <v>1.1</v>
+      </c>
+      <c r="N12">
+        <v>1.1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>999</v>
+      </c>
+      <c r="T12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>200000</v>
+      </c>
+      <c r="V12">
+        <v>0.1</v>
+      </c>
+      <c r="W12">
+        <v>2000000000000</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA12">
+        <v>25000000000</v>
+      </c>
+      <c r="AB12">
+        <v>10000000000</v>
+      </c>
+      <c r="AC12">
+        <v>1.5</v>
+      </c>
+      <c r="AD12">
+        <v>1.25</v>
+      </c>
+      <c r="AE12">
+        <v>1.25</v>
+      </c>
+      <c r="AF12">
+        <v>1.25</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>1.05</v>
+      </c>
+      <c r="AJ12">
+        <v>1.05</v>
+      </c>
+      <c r="AK12">
+        <v>1.05</v>
+      </c>
+      <c r="AL12">
+        <v>1.05</v>
+      </c>
+      <c r="AN12">
+        <v>0.15</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ12">
+        <v>0.7</v>
+      </c>
+      <c r="AR12">
+        <v>0.45</v>
+      </c>
+      <c r="AS12">
+        <v>0.35</v>
+      </c>
+      <c r="AW12">
+        <v>0.15</v>
+      </c>
+      <c r="AX12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="A13">
+        <v>536</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>100000000000</v>
+      </c>
+      <c r="D13">
+        <v>100000000000</v>
+      </c>
+      <c r="E13">
+        <v>100000000000</v>
+      </c>
+      <c r="F13">
+        <v>100000000000</v>
+      </c>
+      <c r="G13">
+        <v>100000000000</v>
+      </c>
+      <c r="H13">
+        <v>100000000000</v>
+      </c>
+      <c r="I13">
+        <v>100000000000</v>
+      </c>
+      <c r="J13">
+        <v>50000000000</v>
+      </c>
+      <c r="K13">
+        <v>1.1</v>
+      </c>
+      <c r="L13">
+        <v>1.1</v>
+      </c>
+      <c r="M13">
+        <v>1.1</v>
+      </c>
+      <c r="N13">
+        <v>1.1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>999</v>
+      </c>
+      <c r="T13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>200000</v>
+      </c>
+      <c r="V13">
+        <v>0.1</v>
+      </c>
+      <c r="W13">
+        <v>2000000000000</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA13">
+        <v>25000000000</v>
+      </c>
+      <c r="AB13">
+        <v>10000000000</v>
+      </c>
+      <c r="AC13">
+        <v>1.5</v>
+      </c>
+      <c r="AD13">
+        <v>1.25</v>
+      </c>
+      <c r="AE13">
+        <v>1.25</v>
+      </c>
+      <c r="AF13">
+        <v>1.25</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>1.05</v>
+      </c>
+      <c r="AJ13">
+        <v>1.05</v>
+      </c>
+      <c r="AK13">
+        <v>1.05</v>
+      </c>
+      <c r="AL13">
+        <v>1.05</v>
+      </c>
+      <c r="AN13">
+        <v>0.15</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ13">
+        <v>0.7</v>
+      </c>
+      <c r="AR13">
+        <v>0.45</v>
+      </c>
+      <c r="AS13">
+        <v>0.35</v>
+      </c>
+      <c r="AW13">
+        <v>0.15</v>
+      </c>
+      <c r="AX13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="A14">
+        <v>537</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <v>100000000000</v>
+      </c>
+      <c r="D14">
+        <v>100000000000</v>
+      </c>
+      <c r="E14">
+        <v>100000000000</v>
+      </c>
+      <c r="F14">
+        <v>100000000000</v>
+      </c>
+      <c r="G14">
+        <v>100000000000</v>
+      </c>
+      <c r="H14">
+        <v>100000000000</v>
+      </c>
+      <c r="I14">
+        <v>100000000000</v>
+      </c>
+      <c r="J14">
+        <v>50000000000</v>
+      </c>
+      <c r="K14">
+        <v>1.1</v>
+      </c>
+      <c r="L14">
+        <v>1.1</v>
+      </c>
+      <c r="M14">
+        <v>1.1</v>
+      </c>
+      <c r="N14">
+        <v>1.1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>999</v>
+      </c>
+      <c r="T14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>200000</v>
+      </c>
+      <c r="V14">
+        <v>0.1</v>
+      </c>
+      <c r="W14">
+        <v>2000000000000</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA14">
+        <v>25000000000</v>
+      </c>
+      <c r="AB14">
+        <v>10000000000</v>
+      </c>
+      <c r="AC14">
+        <v>1.5</v>
+      </c>
+      <c r="AD14">
+        <v>1.25</v>
+      </c>
+      <c r="AE14">
+        <v>1.25</v>
+      </c>
+      <c r="AF14">
+        <v>1.25</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1.05</v>
+      </c>
+      <c r="AJ14">
+        <v>1.05</v>
+      </c>
+      <c r="AK14">
+        <v>1.05</v>
+      </c>
+      <c r="AL14">
+        <v>1.05</v>
+      </c>
+      <c r="AN14">
+        <v>0.15</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ14">
+        <v>0.7</v>
+      </c>
+      <c r="AR14">
+        <v>0.45</v>
+      </c>
+      <c r="AS14">
+        <v>0.35</v>
+      </c>
+      <c r="AW14">
+        <v>0.15</v>
+      </c>
+      <c r="AX14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="A15">
+        <v>538</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15">
+        <v>100000000000</v>
+      </c>
+      <c r="D15">
+        <v>100000000000</v>
+      </c>
+      <c r="E15">
+        <v>100000000000</v>
+      </c>
+      <c r="F15">
+        <v>100000000000</v>
+      </c>
+      <c r="G15">
+        <v>100000000000</v>
+      </c>
+      <c r="H15">
+        <v>100000000000</v>
+      </c>
+      <c r="I15">
+        <v>100000000000</v>
+      </c>
+      <c r="J15">
+        <v>50000000000</v>
+      </c>
+      <c r="K15">
+        <v>1.1</v>
+      </c>
+      <c r="L15">
+        <v>1.1</v>
+      </c>
+      <c r="M15">
+        <v>1.1</v>
+      </c>
+      <c r="N15">
+        <v>1.1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>999</v>
+      </c>
+      <c r="T15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>200000</v>
+      </c>
+      <c r="V15">
+        <v>0.1</v>
+      </c>
+      <c r="W15">
+        <v>2000000000000</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA15">
+        <v>25000000000</v>
+      </c>
+      <c r="AB15">
+        <v>10000000000</v>
+      </c>
+      <c r="AC15">
+        <v>1.5</v>
+      </c>
+      <c r="AD15">
+        <v>1.25</v>
+      </c>
+      <c r="AE15">
+        <v>1.25</v>
+      </c>
+      <c r="AF15">
+        <v>1.25</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1.05</v>
+      </c>
+      <c r="AJ15">
+        <v>1.05</v>
+      </c>
+      <c r="AK15">
+        <v>1.05</v>
+      </c>
+      <c r="AL15">
+        <v>1.05</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN15">
+        <v>0.14</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ15">
+        <v>0.7</v>
+      </c>
+      <c r="AR15">
+        <v>0.45</v>
+      </c>
+      <c r="AS15">
+        <v>0.35</v>
+      </c>
+      <c r="AW15">
+        <v>0.15</v>
+      </c>
+      <c r="AX15">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
